--- a/HOPLONGTECH_MANAGEMENT/SYSTEM_MANAGEMENT/Content/demo.xlsx
+++ b/HOPLONGTECH_MANAGEMENT/SYSTEM_MANAGEMENT/Content/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HOPLONGTECH\TAI_LIEU_CONG_TY\file_import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HOPLONGTECH\CONG_TY\FORM_IMPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,73 +24,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>NGAY_CHUAN</t>
+  </si>
+  <si>
+    <t>GIO_DI_MUON</t>
+  </si>
+  <si>
+    <t>TANG_CA_NGAY_THUONG</t>
+  </si>
+  <si>
+    <t>TANG_CA_NGAY_LE</t>
+  </si>
+  <si>
+    <t>SO_LAN_QUEN_CHAM</t>
+  </si>
+  <si>
+    <t>SO_NGAY_NGHI</t>
+  </si>
+  <si>
+    <t>CONG_THUC_TE</t>
+  </si>
+  <si>
+    <t>UNG_LUONG</t>
+  </si>
+  <si>
+    <t>GHI_CHU</t>
+  </si>
+  <si>
+    <t>THANG_CHAM_CONG</t>
+  </si>
   <si>
     <t>USERNAME</t>
   </si>
   <si>
-    <t>DEPARTMENT_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEX </t>
-  </si>
-  <si>
-    <t>START_TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIRTHDAY </t>
-  </si>
-  <si>
-    <t>NUMBER_PHONE</t>
-  </si>
-  <si>
-    <t>SENIORITY</t>
-  </si>
-  <si>
-    <t>NATIVE_LAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LITERACY </t>
-  </si>
-  <si>
-    <t>4 tháng</t>
-  </si>
-  <si>
-    <t>Nam Tân, Nam Đàn, Nghệ An</t>
-  </si>
-  <si>
-    <t>01648237985</t>
-  </si>
-  <si>
-    <t>HL-EXPORT01</t>
-  </si>
-  <si>
-    <t>EXPORTING</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Đại Học</t>
-  </si>
-  <si>
-    <t>01/09/2016</t>
+    <t>NGUYỄN HỒNG QUẢNG</t>
+  </si>
+  <si>
+    <t>10,000,000</t>
+  </si>
+  <si>
+    <t>GIO_VE_SOM</t>
+  </si>
+  <si>
+    <t>FULLNAME</t>
+  </si>
+  <si>
+    <t>01/2017</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>ứng lương, chốt công ngày 21/01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -102,7 +134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,22 +166,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,85 +471,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="14" width="26.42578125" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="21" max="22" width="20.7109375" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:33" ht="57" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="AE1" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="AF1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,2,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,2,0),"###,###,##0.00"),"-")</f>
+        <v>23.00</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,3,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,3,0),"###,###,##0.00"),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,4,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,4,0),"###,###,##0.00"),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="G2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,5,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,5,0),"###,###,##0.00"),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,6,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,6,0),"###,###,##0.00"),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,7,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,7,0),"###,###,##0.00"),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,8,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,8,0),"###,###,##0.00"),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,9,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,9,0),"###,###,##0.00"),"-")</f>
+        <v>23.00</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,10,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,10,0),"###,###,##0.00"),"-")</f>
+        <v>10,000,000.00</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(VLOOKUP($C2,$V$2:$AG$2,11,0)&lt;&gt;0,TEXT(VLOOKUP($C2,$V$2:$AG$2,11,0),"###,###,##0.00"),"-")</f>
+        <v>ứng lương, chốt công ngày 21/01</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2">
+        <v>23</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6">
-        <v>34491</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="AF2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>